--- a/ASNEC-T2-Questions.xlsx
+++ b/ASNEC-T2-Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term2\social media\finalProject-ASNEC-2019\finalProject-ASNEC-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9BBD9-0303-4E6E-818F-F695EB9CB548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47C79F-846D-4CD0-8509-9E7B05606B22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="سئوالات مرتبط با دادگان منتخب" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>ORIGIN_AIRPORT,DESTINATION_AIRPORT,CITY</t>
   </si>
   <si>
-    <t>کدام فرودگاه ها دارای پروازهای با بیشترین تاخیر هستند؟</t>
-  </si>
-  <si>
     <t>به عنوان یک ایرلاین هوایی باید بهترین فرودگاه های در دسترس را برای انجام پرواز انتخاب نمود</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>اگر یک الگوی ثابت محلی در شبکه کلی پیدا شود می توان به بسیاری از ویژگی های کلی پی برد</t>
+  </si>
+  <si>
+    <t>کدام مسیرها دارای پروازهای با بیشترین تاخیر هستند؟</t>
   </si>
 </sst>
 </file>
@@ -647,10 +647,10 @@
   <dimension ref="B2:H300"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
@@ -737,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>15</v>
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>11</v>
@@ -775,16 +775,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -794,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="10"/>
     </row>
